--- a/src/assets/excel dummy (2).xlsx
+++ b/src/assets/excel dummy (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Documents\Project Binus Smst 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYO\Desktop\BOOTCAMP-RN\adab-v2\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9476C827-A0EF-4CB7-B566-CCB6FAA407B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390AB7C9-BF1F-4029-84CE-68F8A15DFC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1240" windowWidth="14060" windowHeight="10660" xr2:uid="{AEEE25BA-5631-4744-AD4C-3E03CC5B2B86}"/>
+    <workbookView xWindow="1215" yWindow="1860" windowWidth="14715" windowHeight="7875" xr2:uid="{AEEE25BA-5631-4744-AD4C-3E03CC5B2B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Nama</t>
   </si>
@@ -57,18 +54,12 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanggal </t>
-  </si>
-  <si>
     <t>COMP6681001</t>
   </si>
   <si>
     <t>Web progamming</t>
   </si>
   <si>
-    <t>20 Oktober 2023</t>
-  </si>
-  <si>
     <t>07.20 - 09.00</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>Information Visualization</t>
   </si>
   <si>
-    <t>23 Oktober 2023</t>
-  </si>
-  <si>
     <t>13.20 - 15.00</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>Framework Layer Architecture</t>
   </si>
   <si>
-    <t>26 Oktober 2023</t>
-  </si>
-  <si>
     <t>09.20 - 11.00</t>
   </si>
   <si>
@@ -111,10 +96,10 @@
     <t>Entre Market Validation</t>
   </si>
   <si>
-    <t>30 Oktober 2023</t>
-  </si>
-  <si>
     <t>11.20 - 13.00</t>
+  </si>
+  <si>
+    <t>Ganjil 2023/2024</t>
   </si>
 </sst>
 </file>
@@ -472,19 +457,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,106 +483,96 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
